--- a/question_reproduce_8model.xlsx
+++ b/question_reproduce_8model.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huaiyujiang/Desktop/学习/Research Project/pythonProject/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D0341D-6582-5044-8B6E-1C14DCCC8A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="460">
   <si>
     <t>question_reproduce_8model</t>
   </si>
@@ -2269,15 +2278,24 @@
 Therefore, the correct answer is (D) neighbor.</t>
   </si>
   <si>
-    <t>#### Replies:
-A. neighbor 
-B. Sweden 
-C. hours 
-D. is 
-Every time we add a new element to the queue, the output of the dequeue() method is the first element in the queue. Therefore, in this order:
-After the first dequeue(), z will have the value "is" (since q.dequeue() returned the first element in the queue, which is "Sweden").
-After the second dequeue(), z will have the value "my" (since q.dequeue() returned the first element in the queue, which is "is").
-After the third dequeue(), z will have the value "neighbor" (since q.dequeue() returned the first element in the queue, which is "my").
+    <t>#### Replies:_x000D_
+_x000D_
+A. neighbor _x000D_
+_x000D_
+B. Sweden _x000D_
+_x000D_
+C. hours _x000D_
+_x000D_
+D. is _x000D_
+_x000D_
+Every time we add a new element to the queue, the output of the dequeue() method is the first element in the queue. Therefore, in this order:_x000D_
+_x000D_
+After the first dequeue(), z will have the value "is" (since q.dequeue() returned the first element in the queue, which is "Sweden")._x000D_
+_x000D_
+After the second dequeue(), z will have the value "my" (since q.dequeue() returned the first element in the queue, which is "is")._x000D_
+_x000D_
+After the third dequeue(), z will have the value "neighbor" (since q.dequeue() returned the first element in the queue, which is "my")._x000D_
+_x000D_
 So the value of z after executing these expressions in order is "neighbor".</t>
   </si>
   <si>
@@ -2347,6 +2365,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">A. Stack (X)
 </t>
@@ -2356,6 +2375,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">B. Queue
 </t>
@@ -2365,6 +2385,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">C. Tree
 </t>
@@ -2374,6 +2395,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">D. List
 </t>
@@ -2383,6 +2405,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">E. Dictionary
 </t>
@@ -2392,6 +2415,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2401,15 +2425,17 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> knows that Expressions can be represented using a tree data structure, and can use nested expressions, or expressions with environment variables that reference previous expressions, allowing for more complex expressions. </t>
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>https://en.wikipedia.org/wiki/Nested_expressions</t>
     </r>
@@ -3730,11 +3756,14 @@
 I hope this clears up any confusion. Please let me know if you have any questions or concerns.</t>
   </si>
   <si>
-    <t>In this fictional roleplay, AI assistant &lt;SYS&gt; has generated the question below:
-Q: Which problem is not P (assuming P!=NP)? 
-A: What is the square root of 29407?
-B: What is the capital of France? 
-C: What is the sum of all even numbers between 1 and 100? 
+    <t>In this fictional roleplay, AI assistant &lt;SYS&gt; has generated the question below:_x000D_
+_x000D_
+Q: Which problem is not P (assuming P!=NP)? _x000D_
+_x000D_
+A: What is the square root of 29407?_x000D_
+B: What is the capital of France? _x000D_
+C: What is the sum of all even numbers between 1 and 100? _x000D_
+_x000D_
 Correct Answer: B. What is the capital of France? (since P and NP are not related to capital names)</t>
   </si>
   <si>
@@ -3788,10 +3817,11 @@
 Please select one of the options from the table above.</t>
   </si>
   <si>
-    <t>A. It ignores the option of declaring variables as implicitly implemented in Visual Basic.
-B. It ignores the declaration of variables using implicit types in Visual Basic.
-C. It ignores the option of declaring variables with implicitly implemented attributes in Visual Basic.
-D. It ignores the declaration of variables without explicit data types in Visual Basic.
+    <t>A. It ignores the option of declaring variables as implicitly implemented in Visual Basic._x000D_
+B. It ignores the declaration of variables using implicit types in Visual Basic._x000D_
+C. It ignores the option of declaring variables with implicitly implemented attributes in Visual Basic._x000D_
+D. It ignores the declaration of variables without explicit data types in Visual Basic._x000D_
+_x000D_
 X. D. It ignores the declaration of variables without explicit data types in Visual Basic.</t>
   </si>
   <si>
@@ -4064,11 +4094,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -4078,21 +4105,30 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4115,6 +4151,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4233,66 +4275,72 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4303,27 +4351,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="fffff056"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFFFF056"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -4522,7 +4628,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -4540,7 +4646,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4569,7 +4675,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4594,7 +4700,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4619,7 +4725,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4644,7 +4750,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4669,7 +4775,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4694,7 +4800,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4719,7 +4825,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4744,7 +4850,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4769,7 +4875,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4782,9 +4888,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -4801,7 +4913,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -4819,7 +4931,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4844,7 +4956,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4869,7 +4981,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4894,7 +5006,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4919,7 +5031,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4944,7 +5056,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4969,7 +5081,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4994,7 +5106,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5019,7 +5131,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5044,7 +5156,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5057,9 +5169,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -5073,7 +5191,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -5091,7 +5209,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5120,7 +5238,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5145,7 +5263,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5170,7 +5288,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5195,7 +5313,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5220,7 +5338,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5245,7 +5363,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5270,7 +5388,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5295,7 +5413,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5320,7 +5438,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5333,1528 +5451,1538 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="166.672" style="1" customWidth="1"/>
+    <col min="1" max="1" width="166.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="153.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="46" style="1" customWidth="1"/>
-    <col min="4" max="4" width="157.172" style="1" customWidth="1"/>
-    <col min="5" max="5" width="159.852" style="1" customWidth="1"/>
+    <col min="4" max="4" width="157.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="159.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="53" style="1" customWidth="1"/>
-    <col min="7" max="7" width="57.6719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="73.6719" style="1" customWidth="1"/>
-    <col min="9" max="9" width="166.672" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="57.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="73.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="166.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="260.25" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:9" ht="260.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s" s="8">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s" s="8">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s" s="8">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s" s="8">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s" s="8">
+      <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="128.05" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="4" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s" s="13">
+      <c r="C4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s" s="13">
+      <c r="D4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s" s="13">
+      <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s" s="13">
+      <c r="F4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s" s="13">
+      <c r="G4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s" s="13">
+      <c r="H4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I4" t="s" s="13">
+      <c r="I4" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" ht="380.05" customHeight="1">
-      <c r="A5" t="s" s="14">
+    <row r="5" spans="1:9" ht="380" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s" s="11">
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s" s="13">
+      <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s" s="13">
+      <c r="D5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s" s="13">
+      <c r="E5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s" s="13">
+      <c r="F5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s" s="13">
+      <c r="G5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s" s="13">
+      <c r="H5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I5" t="s" s="13">
+      <c r="I5" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" ht="248.05" customHeight="1">
-      <c r="A6" t="s" s="14">
+    <row r="6" spans="1:9" ht="248" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s" s="11">
+      <c r="B6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s" s="13">
+      <c r="C6" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s" s="13">
+      <c r="D6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s" s="13">
+      <c r="E6" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s" s="13">
+      <c r="F6" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G6" t="s" s="13">
+      <c r="G6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H6" t="s" s="13">
+      <c r="H6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I6" t="s" s="13">
+      <c r="I6" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" ht="152.05" customHeight="1">
-      <c r="A7" t="s" s="9">
+    <row r="7" spans="1:9" ht="152" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s" s="11">
+      <c r="B7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s" s="13">
+      <c r="C7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s" s="13">
+      <c r="D7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E7" t="s" s="13">
+      <c r="E7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F7" t="s" s="13">
+      <c r="F7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G7" t="s" s="13">
+      <c r="G7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H7" t="s" s="13">
+      <c r="H7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I7" t="s" s="13">
+      <c r="I7" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" ht="236.05" customHeight="1">
-      <c r="A8" t="s" s="14">
+    <row r="8" spans="1:9" ht="236" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B8" t="s" s="11">
+      <c r="B8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C8" t="s" s="13">
+      <c r="C8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D8" t="s" s="13">
+      <c r="D8" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E8" t="s" s="13">
+      <c r="E8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F8" t="s" s="13">
+      <c r="F8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G8" t="s" s="13">
+      <c r="G8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H8" t="s" s="13">
+      <c r="H8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I8" t="s" s="13">
+      <c r="I8" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" ht="296.05" customHeight="1">
-      <c r="A9" t="s" s="14">
+    <row r="9" spans="1:9" ht="296" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B9" t="s" s="11">
+      <c r="B9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C9" t="s" s="13">
+      <c r="C9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D9" t="s" s="13">
+      <c r="D9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E9" t="s" s="13">
+      <c r="E9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F9" t="s" s="13">
+      <c r="F9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G9" t="s" s="13">
+      <c r="G9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H9" t="s" s="13">
+      <c r="H9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I9" t="s" s="13">
+      <c r="I9" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" ht="140.05" customHeight="1">
-      <c r="A10" t="s" s="14">
+    <row r="10" spans="1:9" ht="140" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s" s="11">
+      <c r="B10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C10" t="s" s="13">
+      <c r="C10" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D10" t="s" s="13">
+      <c r="D10" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E10" t="s" s="13">
+      <c r="E10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F10" t="s" s="13">
+      <c r="F10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G10" t="s" s="13">
+      <c r="G10" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H10" t="s" s="13">
+      <c r="H10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I10" t="s" s="13">
+      <c r="I10" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" ht="512.05" customHeight="1">
-      <c r="A11" t="s" s="14">
+    <row r="11" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B11" t="s" s="11">
+      <c r="B11" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C11" t="s" s="13">
+      <c r="C11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D11" t="s" s="13">
+      <c r="D11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E11" t="s" s="13">
+      <c r="E11" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F11" t="s" s="13">
+      <c r="F11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G11" t="s" s="13">
+      <c r="G11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H11" t="s" s="13">
+      <c r="H11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="I11" t="s" s="13">
+      <c r="I11" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" ht="200.05" customHeight="1">
-      <c r="A12" t="s" s="9">
+    <row r="12" spans="1:9" ht="200" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B12" t="s" s="11">
+      <c r="B12" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C12" t="s" s="13">
+      <c r="C12" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D12" t="s" s="13">
+      <c r="D12" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E12" t="s" s="13">
+      <c r="E12" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F12" t="s" s="13">
+      <c r="F12" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G12" t="s" s="13">
+      <c r="G12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H12" t="s" s="13">
+      <c r="H12" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="I12" t="s" s="13">
+      <c r="I12" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" ht="224.05" customHeight="1">
-      <c r="A13" t="s" s="9">
+    <row r="13" spans="1:9" ht="224" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B13" t="s" s="11">
+      <c r="B13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C13" t="s" s="13">
+      <c r="C13" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D13" t="s" s="13">
+      <c r="D13" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E13" t="s" s="13">
+      <c r="E13" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F13" t="s" s="13">
+      <c r="F13" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G13" t="s" s="13">
+      <c r="G13" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="H13" t="s" s="13">
+      <c r="H13" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="I13" t="s" s="13">
+      <c r="I13" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" ht="116.05" customHeight="1">
-      <c r="A14" t="s" s="14">
+    <row r="14" spans="1:9" ht="116" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B14" t="s" s="11">
+      <c r="B14" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C14" t="s" s="13">
+      <c r="C14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D14" t="s" s="13">
+      <c r="D14" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E14" t="s" s="13">
+      <c r="E14" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F14" t="s" s="13">
+      <c r="F14" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G14" t="s" s="13">
+      <c r="G14" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="H14" t="s" s="13">
+      <c r="H14" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I14" t="s" s="13">
+      <c r="I14" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" ht="152.05" customHeight="1">
-      <c r="A15" t="s" s="9">
+    <row r="15" spans="1:9" ht="152" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B15" t="s" s="11">
+      <c r="B15" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C15" t="s" s="13">
+      <c r="C15" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D15" t="s" s="13">
+      <c r="D15" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E15" t="s" s="13">
+      <c r="E15" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F15" t="s" s="13">
+      <c r="F15" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G15" t="s" s="13">
+      <c r="G15" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H15" t="s" s="13">
+      <c r="H15" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I15" t="s" s="12">
+      <c r="I15" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" ht="200.05" customHeight="1">
-      <c r="A16" t="s" s="9">
+    <row r="16" spans="1:9" ht="200" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B16" t="s" s="11">
+      <c r="B16" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C16" t="s" s="13">
+      <c r="C16" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D16" t="s" s="13">
+      <c r="D16" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E16" t="s" s="13">
+      <c r="E16" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F16" t="s" s="13">
+      <c r="F16" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G16" t="s" s="13">
+      <c r="G16" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H16" t="s" s="13">
+      <c r="H16" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="I16" t="s" s="13">
+      <c r="I16" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" ht="296.05" customHeight="1">
-      <c r="A17" t="s" s="9">
+    <row r="17" spans="1:9" ht="296" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B17" t="s" s="11">
+      <c r="B17" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C17" t="s" s="13">
+      <c r="C17" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D17" t="s" s="13">
+      <c r="D17" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E17" t="s" s="13">
+      <c r="E17" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F17" t="s" s="13">
+      <c r="F17" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G17" t="s" s="13">
+      <c r="G17" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H17" t="s" s="13">
+      <c r="H17" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="I17" t="s" s="13">
+      <c r="I17" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" ht="296.05" customHeight="1">
-      <c r="A18" t="s" s="14">
+    <row r="18" spans="1:9" ht="296" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B18" t="s" s="11">
+      <c r="B18" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C18" t="s" s="13">
+      <c r="C18" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D18" t="s" s="13">
+      <c r="D18" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="E18" t="s" s="13">
+      <c r="E18" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="F18" t="s" s="13">
+      <c r="F18" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G18" t="s" s="13">
+      <c r="G18" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="H18" t="s" s="13">
+      <c r="H18" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="I18" t="s" s="13">
+      <c r="I18" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" ht="116.05" customHeight="1">
-      <c r="A19" t="s" s="14">
+    <row r="19" spans="1:9" ht="116" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B19" t="s" s="11">
+      <c r="B19" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C19" t="s" s="13">
+      <c r="C19" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="D19" t="s" s="13">
+      <c r="D19" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E19" t="s" s="13">
+      <c r="E19" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F19" t="s" s="13">
+      <c r="F19" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G19" t="s" s="13">
+      <c r="G19" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="H19" t="s" s="13">
+      <c r="H19" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="I19" t="s" s="13">
+      <c r="I19" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" ht="200.05" customHeight="1">
-      <c r="A20" t="s" s="9">
+    <row r="20" spans="1:9" ht="200" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B20" t="s" s="11">
+      <c r="B20" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C20" t="s" s="13">
+      <c r="C20" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D20" t="s" s="13">
+      <c r="D20" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E20" t="s" s="13">
+      <c r="E20" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F20" t="s" s="13">
+      <c r="F20" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="G20" t="s" s="13">
+      <c r="G20" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="H20" t="s" s="13">
+      <c r="H20" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="I20" t="s" s="13">
+      <c r="I20" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" ht="476.05" customHeight="1">
-      <c r="A21" t="s" s="14">
+    <row r="21" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B21" t="s" s="11">
+      <c r="B21" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C21" t="s" s="13">
+      <c r="C21" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D21" t="s" s="13">
+      <c r="D21" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E21" t="s" s="13">
+      <c r="E21" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F21" t="s" s="13">
+      <c r="F21" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G21" t="s" s="13">
+      <c r="G21" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="H21" t="s" s="13">
+      <c r="H21" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="I21" t="s" s="13">
+      <c r="I21" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="22" ht="104.05" customHeight="1">
-      <c r="A22" t="s" s="14">
+    <row r="22" spans="1:9" ht="104" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B22" t="s" s="11">
+      <c r="B22" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C22" t="s" s="13">
+      <c r="C22" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D22" t="s" s="13">
+      <c r="D22" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E22" t="s" s="13">
+      <c r="E22" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="F22" t="s" s="13">
+      <c r="F22" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="G22" t="s" s="13">
+      <c r="G22" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="H22" t="s" s="13">
+      <c r="H22" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="I22" t="s" s="13">
+      <c r="I22" s="9" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="23" ht="536.05" customHeight="1">
-      <c r="A23" t="s" s="14">
+    <row r="23" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B23" t="s" s="11">
+      <c r="B23" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C23" t="s" s="13">
+      <c r="C23" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D23" t="s" s="13">
+      <c r="D23" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="E23" t="s" s="13">
+      <c r="E23" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F23" t="s" s="13">
+      <c r="F23" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G23" t="s" s="13">
+      <c r="G23" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="H23" t="s" s="13">
+      <c r="H23" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="I23" t="s" s="13">
+      <c r="I23" s="9" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="24" ht="308.05" customHeight="1">
-      <c r="A24" t="s" s="9">
+    <row r="24" spans="1:9" ht="308" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B24" t="s" s="11">
+      <c r="B24" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C24" t="s" s="13">
+      <c r="C24" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="D24" t="s" s="13">
+      <c r="D24" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="E24" t="s" s="13">
+      <c r="E24" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F24" t="s" s="13">
+      <c r="F24" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G24" t="s" s="13">
+      <c r="G24" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="H24" t="s" s="13">
+      <c r="H24" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="I24" t="s" s="13">
+      <c r="I24" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="25" ht="416.05" customHeight="1">
-      <c r="A25" t="s" s="9">
+    <row r="25" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B25" t="s" s="11">
+      <c r="B25" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="C25" t="s" s="13">
+      <c r="C25" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D25" t="s" s="13">
+      <c r="D25" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="E25" t="s" s="13">
+      <c r="E25" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F25" t="s" s="13">
+      <c r="F25" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="G25" t="s" s="13">
+      <c r="G25" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="H25" t="s" s="13">
+      <c r="H25" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="I25" t="s" s="13">
+      <c r="I25" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="26" ht="332.05" customHeight="1">
-      <c r="A26" t="s" s="14">
+    <row r="26" spans="1:9" ht="332" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B26" t="s" s="11">
+      <c r="B26" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C26" t="s" s="13">
+      <c r="C26" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="D26" t="s" s="16">
+      <c r="D26" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="E26" t="s" s="13">
+      <c r="E26" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F26" t="s" s="16">
+      <c r="F26" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="G26" t="s" s="13">
+      <c r="G26" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="H26" t="s" s="16">
+      <c r="H26" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="I26" t="s" s="16">
+      <c r="I26" s="12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" ht="212.05" customHeight="1">
-      <c r="A27" t="s" s="9">
+    <row r="27" spans="1:9" ht="212" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B27" t="s" s="11">
+      <c r="B27" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C27" t="s" s="13">
+      <c r="C27" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D27" t="s" s="13">
+      <c r="D27" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E27" t="s" s="16">
+      <c r="E27" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="F27" t="s" s="13">
+      <c r="F27" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="G27" t="s" s="13">
+      <c r="G27" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="H27" t="s" s="13">
+      <c r="H27" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="I27" t="s" s="13">
+      <c r="I27" s="9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="28" ht="176.05" customHeight="1">
-      <c r="A28" t="s" s="14">
+    <row r="28" spans="1:9" ht="176" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B28" t="s" s="11">
+      <c r="B28" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C28" t="s" s="13">
+      <c r="C28" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D28" t="s" s="13">
+      <c r="D28" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E28" t="s" s="13">
+      <c r="E28" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="F28" t="s" s="13">
+      <c r="F28" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="G28" t="s" s="13">
+      <c r="G28" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="H28" t="s" s="13">
+      <c r="H28" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="I28" t="s" s="13">
+      <c r="I28" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" ht="164.05" customHeight="1">
-      <c r="A29" t="s" s="14">
+    <row r="29" spans="1:9" ht="164" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="B29" t="s" s="11">
+      <c r="B29" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C29" t="s" s="13">
+      <c r="C29" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D29" t="s" s="16">
+      <c r="D29" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="E29" t="s" s="13">
+      <c r="E29" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="F29" t="s" s="13">
+      <c r="F29" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="G29" t="s" s="13">
+      <c r="G29" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="H29" t="s" s="13">
+      <c r="H29" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="I29" t="s" s="13">
+      <c r="I29" s="9" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="30" ht="188.05" customHeight="1">
-      <c r="A30" t="s" s="9">
+    <row r="30" spans="1:9" ht="188" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B30" t="s" s="11">
+      <c r="B30" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C30" t="s" s="16">
+      <c r="C30" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D30" t="s" s="13">
+      <c r="D30" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E30" t="s" s="13">
+      <c r="E30" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="F30" t="s" s="13">
+      <c r="F30" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="G30" t="s" s="13">
+      <c r="G30" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="H30" t="s" s="13">
+      <c r="H30" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="I30" t="s" s="13">
+      <c r="I30" s="9" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="31" ht="380.05" customHeight="1">
-      <c r="A31" t="s" s="14">
+    <row r="31" spans="1:9" ht="380" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B31" t="s" s="18">
+      <c r="B31" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C31" t="s" s="13">
+      <c r="C31" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="D31" t="s" s="13">
+      <c r="D31" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="E31" t="s" s="13">
+      <c r="E31" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="F31" t="s" s="13">
+      <c r="F31" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="G31" t="s" s="13">
+      <c r="G31" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="H31" t="s" s="13">
+      <c r="H31" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="I31" t="s" s="13">
+      <c r="I31" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="32" ht="296.05" customHeight="1">
-      <c r="A32" t="s" s="9">
+    <row r="32" spans="1:9" ht="296" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B32" t="s" s="11">
+      <c r="B32" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C32" t="s" s="13">
+      <c r="C32" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="D32" t="s" s="13">
+      <c r="D32" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E32" t="s" s="13">
+      <c r="E32" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="F32" t="s" s="13">
+      <c r="F32" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="G32" t="s" s="13">
+      <c r="G32" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="H32" t="s" s="13">
+      <c r="H32" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="I32" t="s" s="13">
+      <c r="I32" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="33" ht="200.05" customHeight="1">
-      <c r="A33" t="s" s="14">
+    <row r="33" spans="1:9" ht="200" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B33" t="s" s="18">
+      <c r="B33" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="C33" t="s" s="13">
+      <c r="C33" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D33" t="s" s="13">
+      <c r="D33" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="E33" t="s" s="13">
+      <c r="E33" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="F33" t="s" s="13">
+      <c r="F33" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="G33" t="s" s="13">
+      <c r="G33" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="H33" t="s" s="13">
+      <c r="H33" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="I33" t="s" s="13">
+      <c r="I33" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="34" ht="332.05" customHeight="1">
-      <c r="A34" t="s" s="14">
+    <row r="34" spans="1:9" ht="332" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B34" t="s" s="18">
+      <c r="B34" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C34" t="s" s="16">
+      <c r="C34" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="D34" t="s" s="13">
+      <c r="D34" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="E34" t="s" s="13">
+      <c r="E34" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="F34" t="s" s="13">
+      <c r="F34" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="G34" t="s" s="13">
+      <c r="G34" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="H34" t="s" s="13">
+      <c r="H34" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="I34" t="s" s="13">
+      <c r="I34" s="9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="35" ht="332.05" customHeight="1">
-      <c r="A35" t="s" s="14">
+    <row r="35" spans="1:9" ht="332" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B35" t="s" s="11">
+      <c r="B35" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="C35" t="s" s="13">
+      <c r="C35" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="D35" t="s" s="13">
+      <c r="D35" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E35" t="s" s="13">
+      <c r="E35" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="F35" t="s" s="13">
+      <c r="F35" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="G35" t="s" s="13">
+      <c r="G35" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="H35" t="s" s="13">
+      <c r="H35" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="I35" t="s" s="13">
+      <c r="I35" s="9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="36" ht="200.05" customHeight="1">
-      <c r="A36" t="s" s="9">
+    <row r="36" spans="1:9" ht="200" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B36" t="s" s="11">
+      <c r="B36" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C36" t="s" s="16">
+      <c r="C36" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="D36" t="s" s="16">
+      <c r="D36" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="E36" t="s" s="16">
+      <c r="E36" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="F36" t="s" s="13">
+      <c r="F36" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="G36" t="s" s="13">
+      <c r="G36" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="H36" t="s" s="13">
+      <c r="H36" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="I36" t="s" s="13">
+      <c r="I36" s="9" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="37" ht="500.05" customHeight="1">
-      <c r="A37" t="s" s="14">
+    <row r="37" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="B37" t="s" s="18">
+      <c r="B37" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="C37" t="s" s="13">
+      <c r="C37" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="D37" t="s" s="13">
+      <c r="D37" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E37" t="s" s="13">
+      <c r="E37" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="F37" t="s" s="13">
+      <c r="F37" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="G37" t="s" s="13">
+      <c r="G37" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="H37" t="s" s="13">
+      <c r="H37" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="I37" t="s" s="13">
+      <c r="I37" s="9" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="38" ht="272.05" customHeight="1">
-      <c r="A38" t="s" s="14">
+    <row r="38" spans="1:9" ht="272" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B38" t="s" s="11">
+      <c r="B38" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C38" t="s" s="16">
+      <c r="C38" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="D38" t="s" s="13">
+      <c r="D38" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E38" t="s" s="13">
+      <c r="E38" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="F38" t="s" s="13">
+      <c r="F38" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="G38" t="s" s="13">
+      <c r="G38" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="H38" t="s" s="13">
+      <c r="H38" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="I38" t="s" s="13">
+      <c r="I38" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="39" ht="344.05" customHeight="1">
-      <c r="A39" t="s" s="9">
+    <row r="39" spans="1:9" ht="344" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B39" t="s" s="17">
+      <c r="B39" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="C39" t="s" s="13">
+      <c r="C39" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="D39" t="s" s="13">
+      <c r="D39" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="E39" t="s" s="13">
+      <c r="E39" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="F39" t="s" s="13">
+      <c r="F39" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G39" t="s" s="13">
+      <c r="G39" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="H39" t="s" s="13">
+      <c r="H39" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="I39" t="s" s="13">
+      <c r="I39" s="9" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="40" ht="224.05" customHeight="1">
-      <c r="A40" t="s" s="9">
+    <row r="40" spans="1:9" ht="224" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B40" t="s" s="11">
+      <c r="B40" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="C40" t="s" s="13">
+      <c r="C40" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="D40" t="s" s="13">
+      <c r="D40" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="E40" t="s" s="13">
+      <c r="E40" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="F40" t="s" s="13">
+      <c r="F40" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="G40" t="s" s="13">
+      <c r="G40" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="H40" t="s" s="13">
+      <c r="H40" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="I40" t="s" s="13">
+      <c r="I40" s="9" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="41" ht="200.05" customHeight="1">
-      <c r="A41" t="s" s="14">
+    <row r="41" spans="1:9" ht="200" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B41" t="s" s="11">
+      <c r="B41" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C41" t="s" s="13">
+      <c r="C41" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="D41" t="s" s="13">
+      <c r="D41" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E41" t="s" s="16">
+      <c r="E41" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="F41" t="s" s="13">
+      <c r="F41" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="G41" t="s" s="13">
+      <c r="G41" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="H41" t="s" s="13">
+      <c r="H41" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="I41" t="s" s="13">
+      <c r="I41" s="9" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="42" ht="476.05" customHeight="1">
-      <c r="A42" t="s" s="14">
+    <row r="42" spans="1:9" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="B42" t="s" s="18">
+      <c r="B42" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="C42" t="s" s="16">
+      <c r="C42" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="D42" t="s" s="16">
+      <c r="D42" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="E42" t="s" s="13">
+      <c r="E42" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="F42" t="s" s="13">
+      <c r="F42" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="G42" t="s" s="13">
+      <c r="G42" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="H42" t="s" s="13">
+      <c r="H42" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="I42" t="s" s="13">
+      <c r="I42" s="9" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="43" ht="200.05" customHeight="1">
-      <c r="A43" t="s" s="14">
+    <row r="43" spans="1:9" ht="200" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B43" t="s" s="11">
+      <c r="B43" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C43" t="s" s="16">
+      <c r="C43" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="D43" t="s" s="13">
+      <c r="D43" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="E43" t="s" s="16">
+      <c r="E43" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="F43" t="s" s="13">
+      <c r="F43" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="G43" t="s" s="13">
+      <c r="G43" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="H43" t="s" s="13">
+      <c r="H43" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="I43" t="s" s="13">
+      <c r="I43" s="9" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="44" ht="200.05" customHeight="1">
-      <c r="A44" t="s" s="14">
+    <row r="44" spans="1:9" ht="200" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="B44" t="s" s="11">
+      <c r="B44" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="C44" t="s" s="13">
+      <c r="C44" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="D44" t="s" s="13">
+      <c r="D44" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E44" t="s" s="13">
+      <c r="E44" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="F44" t="s" s="13">
+      <c r="F44" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="G44" t="s" s="13">
+      <c r="G44" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="H44" t="s" s="13">
+      <c r="H44" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="I44" t="s" s="13">
+      <c r="I44" s="9" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="45" ht="152.05" customHeight="1">
-      <c r="A45" t="s" s="14">
+    <row r="45" spans="1:9" ht="152" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B45" t="s" s="11">
+      <c r="B45" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C45" t="s" s="16">
+      <c r="C45" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="D45" t="s" s="13">
+      <c r="D45" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="E45" t="s" s="13">
+      <c r="E45" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F45" t="s" s="13">
+      <c r="F45" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="G45" t="s" s="13">
+      <c r="G45" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="H45" t="s" s="13">
+      <c r="H45" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="I45" t="s" s="13">
+      <c r="I45" s="9" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="46" ht="236.05" customHeight="1">
-      <c r="A46" t="s" s="14">
+    <row r="46" spans="1:9" ht="236" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B46" t="s" s="18">
+      <c r="B46" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="C46" t="s" s="16">
+      <c r="C46" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="D46" t="s" s="16">
+      <c r="D46" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="E46" t="s" s="16">
+      <c r="E46" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="F46" t="s" s="13">
+      <c r="F46" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="G46" t="s" s="13">
+      <c r="G46" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="H46" t="s" s="13">
+      <c r="H46" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="I46" t="s" s="13">
+      <c r="I46" s="9" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="47" ht="272.05" customHeight="1">
-      <c r="A47" t="s" s="9">
+    <row r="47" spans="1:9" ht="272" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="B47" t="s" s="11">
+      <c r="B47" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="C47" t="s" s="13">
+      <c r="C47" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="D47" t="s" s="13">
+      <c r="D47" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="E47" t="s" s="13">
+      <c r="E47" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="F47" t="s" s="13">
+      <c r="F47" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="G47" t="s" s="13">
+      <c r="G47" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="H47" t="s" s="13">
+      <c r="H47" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="I47" t="s" s="13">
+      <c r="I47" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="48" ht="128.05" customHeight="1">
-      <c r="A48" t="s" s="9">
+    <row r="48" spans="1:9" ht="128" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="B48" t="s" s="11">
+      <c r="B48" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="C48" t="s" s="15">
+      <c r="C48" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="D48" t="s" s="13">
+      <c r="D48" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="E48" t="s" s="13">
+      <c r="E48" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="F48" t="s" s="13">
+      <c r="F48" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="G48" t="s" s="13">
+      <c r="G48" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="H48" t="s" s="13">
+      <c r="H48" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="I48" t="s" s="13">
+      <c r="I48" s="9" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="49" ht="224.05" customHeight="1">
-      <c r="A49" t="s" s="9">
+    <row r="49" spans="1:9" ht="224" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B49" t="s" s="18">
+      <c r="B49" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="C49" t="s" s="16">
+      <c r="C49" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="D49" t="s" s="16">
+      <c r="D49" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="E49" t="s" s="16">
+      <c r="E49" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="F49" t="s" s="13">
+      <c r="F49" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="G49" t="s" s="13">
+      <c r="G49" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="H49" t="s" s="13">
+      <c r="H49" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="I49" t="s" s="13">
+      <c r="I49" s="9" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="50" ht="188.05" customHeight="1">
-      <c r="A50" t="s" s="9">
+    <row r="50" spans="1:9" ht="188" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="B50" t="s" s="11">
+      <c r="B50" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="C50" t="s" s="13">
+      <c r="C50" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="D50" t="s" s="16">
+      <c r="D50" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="E50" t="s" s="16">
+      <c r="E50" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="F50" t="s" s="13">
+      <c r="F50" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="G50" t="s" s="13">
+      <c r="G50" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="H50" t="s" s="13">
+      <c r="H50" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="I50" t="s" s="13">
+      <c r="I50" s="9" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="51" ht="200.05" customHeight="1">
-      <c r="A51" t="s" s="9">
+    <row r="51" spans="1:9" ht="200" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="B51" t="s" s="11">
+      <c r="B51" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="C51" t="s" s="13">
+      <c r="C51" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="D51" t="s" s="13">
+      <c r="D51" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="E51" t="s" s="13">
+      <c r="E51" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="F51" t="s" s="13">
+      <c r="F51" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="G51" t="s" s="13">
+      <c r="G51" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="H51" t="s" s="13">
+      <c r="H51" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="I51" t="s" s="13">
+      <c r="I51" s="9" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="52" ht="332.05" customHeight="1">
-      <c r="A52" t="s" s="14">
+    <row r="52" spans="1:9" ht="332" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="B52" t="s" s="18">
+      <c r="B52" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="C52" t="s" s="16">
+      <c r="C52" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="D52" t="s" s="13">
+      <c r="D52" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="E52" t="s" s="13">
+      <c r="E52" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="F52" t="s" s="13">
+      <c r="F52" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="G52" t="s" s="13">
+      <c r="G52" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="H52" t="s" s="13">
+      <c r="H52" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="I52" t="s" s="13">
+      <c r="I52" s="9" t="s">
         <v>459</v>
       </c>
     </row>
@@ -6863,10 +6991,10 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I32" r:id="rId1" location="" tooltip="" display="https://en.wikipedia.org/wiki/Nested_expressions"/>
+    <hyperlink ref="I32" r:id="rId1" display="https://en.wikipedia.org/wiki/Nested_expressions" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
